--- a/For producing/Components list.xlsx
+++ b/For producing/Components list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasim\Dropbox\Working directory\Papers\Sensor detachment system\GitHub files\For producing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasim\Documents\1. My Documents\1. University\Papers\Sensor detachment system\GitHub files\For producing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419F685-1BF0-4E7F-968A-36E8F3F8DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0FE7E-CAB8-456B-9A75-C3B027EF6210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{74705698-F3DE-4D9D-9CC4-B74D36015AD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{74705698-F3DE-4D9D-9CC4-B74D36015AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Component</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Nichrome wire</t>
   </si>
   <si>
-    <t>Brass spacer screw</t>
-  </si>
-  <si>
     <t>Minimum order price (USD)</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>www.rs-online.com</t>
   </si>
   <si>
-    <t>www.theopenfactory.co.uk/</t>
-  </si>
-  <si>
     <t>1772-2606-ND</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>$ 7.99 (enough for 250 SensorDrops)</t>
   </si>
   <si>
-    <t>Nylon webbing (40 mm)</t>
-  </si>
-  <si>
     <t>$ 0.89 (enough for 8 SensorDrops)</t>
   </si>
   <si>
@@ -183,6 +174,57 @@
   </si>
   <si>
     <t>Self-producible (see Rafiq et al., 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monofilament fishing nylon, uncoated, and 50 lb (22.6 kg) tensile strength. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 mm thick acrylic (plexiglass) </t>
+  </si>
+  <si>
+    <t>Cable type: hook-up; gauge: 24 AWG; conductor strand: solid; conductor material: copper, annealed tinned</t>
+  </si>
+  <si>
+    <t>Inner ring diamater: 3.68 mm; outer ring diamater; 6.35; contact material: copper; contact plating: tin</t>
+  </si>
+  <si>
+    <t>Battery type: lithium polymer; capacity: 200 mAh; voltage 3.7V; constant discharge rate: 20C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing material: Polylactic Acid (PLA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single strand nichrome; gauge: 28 </t>
+  </si>
+  <si>
+    <t>Spacer screw</t>
+  </si>
+  <si>
+    <t>Type: machine screw; material: steel; plating: zinc, clear chromate; thread size: M2.5x0.45</t>
+  </si>
+  <si>
+    <t>Material: brass; thread size: M2.5x0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nylon webbing </t>
+  </si>
+  <si>
+    <t>WN250-BLACK</t>
+  </si>
+  <si>
+    <t>Weave nylon webbing</t>
+  </si>
+  <si>
+    <t>Material specifications △</t>
+  </si>
+  <si>
+    <t>* Since some SensorDrop materials must be purchased in packages with more materials than required for a single SensorDrop unit (see minimum order price), the initial material costs for a single SensorDrop unit are $60.77, with costs further reducing to the $25.36 unit cost as more units are developed.</t>
+  </si>
+  <si>
+    <t>△ We provide material specifications for users who want or need to purchase alternative parts than those suggested. Part recommendations are based on component specifications during African wild dog deployments. Other materials/specifications may also be suitable. In all cases, we recommend thorough testing within a controlled environment before deploying on animals.</t>
+  </si>
+  <si>
+    <t>www.3dpeople.uk/</t>
   </si>
 </sst>
 </file>
@@ -190,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -225,23 +259,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,56 +358,60 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -667,26 +728,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B76ED0-C741-40CA-B391-354A69561ABC}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.08984375" style="3" customWidth="1"/>
     <col min="2" max="3" width="20.54296875" style="3"/>
-    <col min="4" max="4" width="26.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="39.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="20.54296875" style="3"/>
+    <col min="6" max="6" width="34.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="20.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,353 +757,402 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10.66</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10.66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C7" s="7">
+        <v>9067000498</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6.76</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="D12" s="8">
+        <v>2.52</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
-        <v>9067000498</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3.49</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="D13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7">
-        <v>6.76</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2.52</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E17" s="6" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
-        <v>580632</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="2"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" display="http://www.rs-online.com/" xr:uid="{7E1A1B2C-EC00-46DE-8594-228C96C0B999}"/>
-    <hyperlink ref="F10" r:id="rId2" display="http://www.theopenfactory.co.uk/" xr:uid="{B32C5B0F-A3DE-4349-8D81-A8F8287D655B}"/>
-    <hyperlink ref="F11" r:id="rId3" display="http://www.amazon.com/" xr:uid="{125ECD11-8690-451C-B42D-BBAD22F8C674}"/>
-    <hyperlink ref="F13" r:id="rId4" display="http://www.amazon.com/" xr:uid="{49F17CE5-C940-4CED-8E46-10379BA3B49C}"/>
-    <hyperlink ref="F20" r:id="rId5" display="http://www.profabrics.co.uk/" xr:uid="{A1F2D925-8777-4527-9472-8CDC36E21965}"/>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.rs-online.com/" xr:uid="{7E1A1B2C-EC00-46DE-8594-228C96C0B999}"/>
+    <hyperlink ref="G11" r:id="rId2" display="http://www.amazon.com/" xr:uid="{125ECD11-8690-451C-B42D-BBAD22F8C674}"/>
+    <hyperlink ref="G13" r:id="rId3" display="http://www.amazon.com/" xr:uid="{49F17CE5-C940-4CED-8E46-10379BA3B49C}"/>
+    <hyperlink ref="G20" r:id="rId4" display="http://www.profabrics.co.uk/" xr:uid="{A1F2D925-8777-4527-9472-8CDC36E21965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>